--- a/results/mp/logistic/corona/confidence/42/stop-words-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/stop-words-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,12 +40,12 @@
     <t>name</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
@@ -55,9 +55,6 @@
     <t>panic</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
@@ -67,31 +64,40 @@
     <t>love</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>special</t>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>safe</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>positive</t>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>heroes</t>
@@ -103,61 +109,49 @@
     <t>confidence</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>fresh</t>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>interesting</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>gt</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>save</t>
+    <t>please</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>alert</t>
+    <t>care</t>
   </si>
   <si>
     <t>safety</t>
-  </si>
-  <si>
-    <t>care</t>
   </si>
   <si>
     <t>protect</t>
@@ -521,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -529,10 +523,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -590,13 +584,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7586206896551724</v>
+        <v>0.7397260273972602</v>
       </c>
       <c r="C3">
-        <v>22</v>
+        <v>216</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>216</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -608,10 +602,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K3">
         <v>0.9347826086956522</v>
@@ -640,13 +634,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7191780821917808</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="C4">
-        <v>210</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>210</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -658,19 +652,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -682,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -690,13 +684,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.4444444444444444</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C5">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D5">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -708,19 +702,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K5">
-        <v>0.9083333333333333</v>
+        <v>0.8983050847457628</v>
       </c>
       <c r="L5">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="M5">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -732,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -761,16 +755,16 @@
         <v>32</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K6">
-        <v>0.8839285714285714</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L6">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M6">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -782,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -790,13 +784,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3294573643410852</v>
+        <v>0.3236434108527132</v>
       </c>
       <c r="C7">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D7">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -808,19 +802,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K7">
-        <v>0.8461538461538461</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L7">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="M7">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -832,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -840,13 +834,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.2533333333333334</v>
+        <v>0.2013422818791946</v>
       </c>
       <c r="C8">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -858,60 +852,36 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8">
+        <v>0.814621409921671</v>
+      </c>
+      <c r="L8">
+        <v>312</v>
+      </c>
+      <c r="M8">
+        <v>312</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="J9" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="K8">
-        <v>0.8198433420365535</v>
-      </c>
-      <c r="L8">
-        <v>314</v>
-      </c>
-      <c r="M8">
-        <v>314</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.1879194630872483</v>
-      </c>
-      <c r="C9">
-        <v>28</v>
-      </c>
-      <c r="D9">
-        <v>28</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>121</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="K9">
         <v>0.8113207547169812</v>
@@ -937,16 +907,16 @@
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K10">
-        <v>0.8055555555555556</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="L10">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="M10">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -958,21 +928,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K11">
-        <v>0.8048780487804879</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L11">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="M11">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -984,21 +954,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K12">
-        <v>0.7931034482758621</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="L12">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="M12">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1010,21 +980,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K13">
-        <v>0.7872340425531915</v>
+        <v>0.7682926829268293</v>
       </c>
       <c r="L13">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="M13">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1036,21 +1006,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K14">
-        <v>0.78125</v>
+        <v>0.75</v>
       </c>
       <c r="L14">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="M14">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1062,21 +1032,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K15">
-        <v>0.7777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="L15">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M15">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1088,21 +1058,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K16">
-        <v>0.7605633802816901</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L16">
-        <v>108</v>
+        <v>35</v>
       </c>
       <c r="M16">
-        <v>108</v>
+        <v>35</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1114,21 +1084,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K17">
-        <v>0.7578125</v>
+        <v>0.7375</v>
       </c>
       <c r="L17">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="M17">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1140,21 +1110,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K18">
-        <v>0.75</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L18">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="M18">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1166,21 +1136,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K19">
-        <v>0.7441860465116279</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L19">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="M19">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1192,21 +1162,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K20">
-        <v>0.7407407407407407</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L20">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M20">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1218,21 +1188,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K21">
-        <v>0.696969696969697</v>
+        <v>0.6511627906976745</v>
       </c>
       <c r="L21">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M21">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1244,12 +1214,12 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K22">
         <v>0.6507936507936508</v>
@@ -1275,16 +1245,16 @@
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K23">
-        <v>0.65</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L23">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="M23">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1296,21 +1266,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K24">
-        <v>0.62</v>
+        <v>0.6029411764705882</v>
       </c>
       <c r="L24">
-        <v>31</v>
+        <v>205</v>
       </c>
       <c r="M24">
-        <v>31</v>
+        <v>205</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1322,21 +1292,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>19</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K25">
-        <v>0.6058823529411764</v>
+        <v>0.6</v>
       </c>
       <c r="L25">
-        <v>206</v>
+        <v>24</v>
       </c>
       <c r="M25">
-        <v>206</v>
+        <v>24</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1348,47 +1318,47 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>134</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K26">
-        <v>0.6</v>
+        <v>0.58</v>
       </c>
       <c r="L26">
+        <v>29</v>
+      </c>
+      <c r="M26">
+        <v>29</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
         <v>21</v>
-      </c>
-      <c r="M26">
-        <v>21</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>14</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K27">
-        <v>0.5692307692307692</v>
+        <v>0.5732217573221757</v>
       </c>
       <c r="L27">
-        <v>37</v>
+        <v>137</v>
       </c>
       <c r="M27">
-        <v>37</v>
+        <v>137</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1400,21 +1370,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>28</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K28">
-        <v>0.5638297872340425</v>
+        <v>0.5457627118644067</v>
       </c>
       <c r="L28">
-        <v>53</v>
+        <v>161</v>
       </c>
       <c r="M28">
-        <v>53</v>
+        <v>161</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1426,21 +1396,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>41</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K29">
-        <v>0.5606694560669456</v>
+        <v>0.5319148936170213</v>
       </c>
       <c r="L29">
-        <v>134</v>
+        <v>50</v>
       </c>
       <c r="M29">
-        <v>134</v>
+        <v>50</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1452,21 +1422,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>105</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K30">
-        <v>0.559322033898305</v>
+        <v>0.5230769230769231</v>
       </c>
       <c r="L30">
-        <v>165</v>
+        <v>34</v>
       </c>
       <c r="M30">
-        <v>165</v>
+        <v>34</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1478,21 +1448,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>130</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K31">
-        <v>0.5285714285714286</v>
+        <v>0.5</v>
       </c>
       <c r="L31">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M31">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1504,21 +1474,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K32">
-        <v>0.4761904761904762</v>
+        <v>0.4157303370786517</v>
       </c>
       <c r="L32">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="M32">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1530,12 +1500,12 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K33">
         <v>0.4117647058823529</v>
@@ -1561,16 +1531,16 @@
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K34">
-        <v>0.3932584269662922</v>
+        <v>0.3150684931506849</v>
       </c>
       <c r="L34">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="M34">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1582,21 +1552,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K35">
-        <v>0.3424657534246575</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="L35">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M35">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1608,33 +1578,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="10:17">
-      <c r="J36" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K36">
-        <v>0.2564102564102564</v>
-      </c>
-      <c r="L36">
-        <v>20</v>
-      </c>
-      <c r="M36">
-        <v>20</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
